--- a/Data/kuka_line.xlsx
+++ b/Data/kuka_line.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>Tx</t>
   </si>
@@ -28,31 +28,31 @@
     <t>Tz</t>
   </si>
   <si>
-    <t>Tr11</t>
+    <t>r11</t>
   </si>
   <si>
-    <t>Tr12</t>
+    <t>r12</t>
   </si>
   <si>
-    <t>Tr13</t>
+    <t>r13</t>
   </si>
   <si>
-    <t>Tr21</t>
+    <t>r21</t>
   </si>
   <si>
-    <t>Tr22</t>
+    <t>r22</t>
   </si>
   <si>
-    <t>Tr23</t>
+    <t>r23</t>
   </si>
   <si>
-    <t>Tr31</t>
+    <t>r31</t>
   </si>
   <si>
-    <t>Tr32</t>
+    <t>r32</t>
   </si>
   <si>
-    <t>Tr33</t>
+    <t>r33</t>
   </si>
   <si>
     <t>q1</t>
@@ -74,42 +74,6 @@
   </si>
   <si>
     <t>q7</t>
-  </si>
-  <si>
-    <t>Ax</t>
-  </si>
-  <si>
-    <t>Ay</t>
-  </si>
-  <si>
-    <t>Az</t>
-  </si>
-  <si>
-    <t>Ar11</t>
-  </si>
-  <si>
-    <t>Ar12</t>
-  </si>
-  <si>
-    <t>Ar13</t>
-  </si>
-  <si>
-    <t>Ar21</t>
-  </si>
-  <si>
-    <t>Ar22</t>
-  </si>
-  <si>
-    <t>Ar23</t>
-  </si>
-  <si>
-    <t>Ar31</t>
-  </si>
-  <si>
-    <t>Ar32</t>
-  </si>
-  <si>
-    <t>Ar33</t>
   </si>
   <si>
     <t>ex</t>
@@ -134,10 +98,34 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -163,8 +151,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,40 +457,40 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3405,25 +3396,25 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5189,41 +5180,41 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" t="s">
-        <v>30</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -8128,23 +8119,23 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>36</v>
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6">
